--- a/Congreso_2018/DATOS_SIMPOSIOS_2018.xlsx
+++ b/Congreso_2018/DATOS_SIMPOSIOS_2018.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier.velasco\Desktop\ProyectosGit\SCF\Congreso_2018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$246</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="504">
   <si>
     <t>1. Nombres</t>
   </si>
@@ -1040,10 +1047,10 @@
     <t>Gustavo Adolfo Silva</t>
   </si>
   <si>
-    <t xml:space="preserve">Daño, asco y moralidad. Una respuesta al desconcierto moral de Haidt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Arturo Plazas </t>
+    <t>Daño, asco y moralidad. Una respuesta al desconcierto moral de Haidt </t>
+  </si>
+  <si>
+    <t>Carlos Arturo Plazas </t>
   </si>
   <si>
     <t>Universidad de Pamplona</t>
@@ -1073,7 +1080,7 @@
     <t>La noción de carácter y su impacto en la consideración sobre las acciones morales</t>
   </si>
   <si>
-    <t xml:space="preserve">Natalia Lara Vega  </t>
+    <t>Natalia Lara Vega  </t>
   </si>
   <si>
     <t>Crianza y cambio social</t>
@@ -1510,34 +1517,56 @@
   </si>
   <si>
     <t>“Una cosa es una cosa”. Objeto, sujeto y memoria a propósito de la obra de María Teresa Hincapié</t>
+  </si>
+  <si>
+    <t>4. Tema</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>57 m</t>
+  </si>
+  <si>
+    <t>145 H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1546,26 +1575,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1853,2528 +1913,4078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C228"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="81.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>501</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>501</v>
+      </c>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>501</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>501</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C32" t="s">
         <v>55</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>501</v>
+      </c>
+      <c r="C34" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
+        <v>500</v>
+      </c>
+      <c r="C36" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E36" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>82</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>87</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
+        <v>501</v>
+      </c>
+      <c r="C39" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E39" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>501</v>
+      </c>
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E40" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
+        <v>501</v>
+      </c>
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E41" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>95</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>97</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E43" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
+        <v>500</v>
+      </c>
+      <c r="C44" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
+        <v>500</v>
+      </c>
+      <c r="C45" t="s">
         <v>55</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>105</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" t="s">
         <v>106</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>108</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
+        <v>500</v>
+      </c>
+      <c r="C48" t="s">
         <v>109</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E48" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
+        <v>500</v>
+      </c>
+      <c r="C49" t="s">
         <v>68</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
+        <v>501</v>
+      </c>
+      <c r="C50" t="s">
         <v>68</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E50" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
+        <v>501</v>
+      </c>
+      <c r="C51" t="s">
         <v>68</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E51" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>117</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
+        <v>501</v>
+      </c>
+      <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>119</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
+        <v>501</v>
+      </c>
+      <c r="C53" t="s">
         <v>120</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E53" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="F53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>122</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
+        <v>501</v>
+      </c>
+      <c r="C54" t="s">
         <v>55</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E54" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="F54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C55" t="s">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>125</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
+        <v>501</v>
+      </c>
+      <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E56" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="F56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>127</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
+        <v>500</v>
+      </c>
+      <c r="C57" t="s">
         <v>128</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E57" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>130</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
+        <v>501</v>
+      </c>
+      <c r="C58" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E58" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="F58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>132</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E59" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="F59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>134</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" t="s">
         <v>128</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E60" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="F60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>136</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
+        <v>501</v>
+      </c>
+      <c r="C61" t="s">
         <v>21</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="F61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>138</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
+        <v>500</v>
+      </c>
+      <c r="C62" t="s">
         <v>139</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E62" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="F62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>3</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C63" t="s">
         <v>3</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E63" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>142</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
+        <v>500</v>
+      </c>
+      <c r="C64" t="s">
         <v>68</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E64" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="F64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>144</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
+        <v>500</v>
+      </c>
+      <c r="C65" t="s">
         <v>128</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E65" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>146</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
+        <v>500</v>
+      </c>
+      <c r="C66" t="s">
         <v>147</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E66" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="F66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>149</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C67" t="s">
         <v>59</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E67" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="F67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>151</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
+        <v>500</v>
+      </c>
+      <c r="C68" t="s">
         <v>128</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E68" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="F68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>153</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
+        <v>500</v>
+      </c>
+      <c r="C69" t="s">
         <v>154</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E69" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="F69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>156</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
+        <v>500</v>
+      </c>
+      <c r="C70" t="s">
         <v>59</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E70" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="F70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>158</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
+        <v>500</v>
+      </c>
+      <c r="C71" t="s">
         <v>159</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E71" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="F71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>3</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C72" t="s">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E72" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>162</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
+        <v>500</v>
+      </c>
+      <c r="C73" t="s">
         <v>163</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E73" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="F73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>165</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
+        <v>501</v>
+      </c>
+      <c r="C74" t="s">
         <v>166</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E74" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>168</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+      <c r="C75" t="s">
         <v>169</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E75" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="F75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>171</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
+        <v>501</v>
+      </c>
+      <c r="C76" t="s">
         <v>88</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E76" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="F76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>173</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
+        <v>500</v>
+      </c>
+      <c r="C77" t="s">
         <v>169</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E77" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="F77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>175</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
+        <v>501</v>
+      </c>
+      <c r="C78" t="s">
         <v>68</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E78" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="F78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>177</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
+        <v>500</v>
+      </c>
+      <c r="C79" t="s">
         <v>169</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E79" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>179</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
+        <v>501</v>
+      </c>
+      <c r="C80" t="s">
         <v>169</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E80" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="F80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>3</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C81" t="s">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E81" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>182</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
+        <v>501</v>
+      </c>
+      <c r="C82" t="s">
         <v>55</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E82" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="F82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>184</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
+        <v>501</v>
+      </c>
+      <c r="C83" t="s">
         <v>55</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E83" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="F83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>186</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
+        <v>500</v>
+      </c>
+      <c r="C84" t="s">
         <v>120</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E84" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="F84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>122</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
+        <v>501</v>
+      </c>
+      <c r="C85" t="s">
         <v>55</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E85" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="F85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>189</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
+        <v>501</v>
+      </c>
+      <c r="C86" t="s">
         <v>83</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E86" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="F86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>191</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
+        <v>501</v>
+      </c>
+      <c r="C87" t="s">
         <v>128</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E87" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="F87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>3</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C88" t="s">
         <v>3</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>194</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
+        <v>501</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E89" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="F89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>197</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
+        <v>501</v>
+      </c>
+      <c r="C90" t="s">
         <v>73</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E90" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="F90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>199</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
+        <v>501</v>
+      </c>
+      <c r="C91" t="s">
         <v>200</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E91" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="F91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>202</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
+        <v>501</v>
+      </c>
+      <c r="C92" t="s">
         <v>203</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E92" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="F92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>205</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
+        <v>500</v>
+      </c>
+      <c r="C93" t="s">
         <v>128</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E93" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="F93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>207</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
+        <v>501</v>
+      </c>
+      <c r="C94" t="s">
         <v>55</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E94" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" t="s">
+        <v>208</v>
+      </c>
+      <c r="F95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>209</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
+        <v>501</v>
+      </c>
+      <c r="C96" t="s">
         <v>21</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D96" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="E96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" t="s">
+        <v>500</v>
+      </c>
+      <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>210</v>
+      </c>
+      <c r="F97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>211</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" t="s">
         <v>212</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E98" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="F98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>3</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C99" t="s">
         <v>3</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E99" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>215</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
+        <v>501</v>
+      </c>
+      <c r="C100" t="s">
         <v>216</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E100" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="F100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>218</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B101" t="s">
+        <v>501</v>
+      </c>
+      <c r="C101" t="s">
         <v>219</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E101" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="F101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>221</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B102" t="s">
+        <v>501</v>
+      </c>
+      <c r="C102" t="s">
         <v>21</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E102" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="F102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>223</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
+        <v>501</v>
+      </c>
+      <c r="C103" t="s">
         <v>6</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E103" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="F103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>225</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
+        <v>501</v>
+      </c>
+      <c r="C104" t="s">
         <v>226</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E104" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="F104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>228</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" t="s">
+        <v>500</v>
+      </c>
+      <c r="C105" t="s">
         <v>226</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E105" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="F105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>230</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B106" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" t="s">
         <v>226</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E106" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="F106" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>232</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B107" t="s">
+        <v>501</v>
+      </c>
+      <c r="C107" t="s">
         <v>21</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E107" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="F107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>234</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B108" t="s">
+        <v>501</v>
+      </c>
+      <c r="C108" t="s">
         <v>21</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E108" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="F108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>3</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C109" t="s">
         <v>3</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E109" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>237</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B110" t="s">
+        <v>501</v>
+      </c>
+      <c r="C110" t="s">
         <v>238</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E110" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="F110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>240</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B111" t="s">
+        <v>500</v>
+      </c>
+      <c r="C111" t="s">
         <v>55</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E111" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="F111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>242</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B112" t="s">
+        <v>501</v>
+      </c>
+      <c r="C112" t="s">
         <v>243</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E112" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="F112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>245</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B113" t="s">
+        <v>501</v>
+      </c>
+      <c r="C113" t="s">
         <v>55</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E113" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="F113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>247</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B114" t="s">
+        <v>501</v>
+      </c>
+      <c r="C114" t="s">
         <v>128</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E114" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="F114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>249</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B115" t="s">
+        <v>501</v>
+      </c>
+      <c r="C115" t="s">
         <v>83</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E115" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="F115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>251</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B116" t="s">
+        <v>501</v>
+      </c>
+      <c r="C116" t="s">
         <v>252</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E116" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="F116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>254</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B117" t="s">
+        <v>500</v>
+      </c>
+      <c r="C117" t="s">
         <v>255</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E117" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="F117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>257</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B118" t="s">
+        <v>501</v>
+      </c>
+      <c r="C118" t="s">
         <v>243</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E118" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="F118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>259</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B119" t="s">
+        <v>500</v>
+      </c>
+      <c r="C119" t="s">
         <v>73</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E119" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="F119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>3</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C120" t="s">
         <v>3</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E120" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>262</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B121" t="s">
+        <v>500</v>
+      </c>
+      <c r="C121" t="s">
         <v>73</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E121" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="F121" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>264</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B122" t="s">
+        <v>500</v>
+      </c>
+      <c r="C122" t="s">
         <v>252</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E122" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="F122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>266</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B123" t="s">
+        <v>501</v>
+      </c>
+      <c r="C123" t="s">
         <v>73</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E123" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="F123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>268</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
+        <v>501</v>
+      </c>
+      <c r="C124" t="s">
         <v>73</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E124" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
+      <c r="F124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>270</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B125" t="s">
+        <v>501</v>
+      </c>
+      <c r="C125" t="s">
         <v>73</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E125" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
+      <c r="F125" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>272</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B126" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" t="s">
         <v>273</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E126" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
+      <c r="F126" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>3</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C127" t="s">
         <v>3</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E127" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>276</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B128" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128" t="s">
         <v>277</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E128" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="F128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>279</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B129" t="s">
+        <v>501</v>
+      </c>
+      <c r="C129" t="s">
         <v>277</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E129" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="F129" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>281</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B130" t="s">
+        <v>501</v>
+      </c>
+      <c r="C130" t="s">
         <v>282</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E130" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="F130" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>284</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
+        <v>501</v>
+      </c>
+      <c r="C131" t="s">
         <v>277</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D131" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="E131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>284</v>
+      </c>
+      <c r="B132" t="s">
+        <v>500</v>
+      </c>
+      <c r="C132" t="s">
+        <v>277</v>
+      </c>
+      <c r="E132" t="s">
+        <v>285</v>
+      </c>
+      <c r="F132" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>286</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B133" t="s">
+        <v>501</v>
+      </c>
+      <c r="C133" t="s">
         <v>277</v>
       </c>
-      <c r="C129" t="s">
+      <c r="E133" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+      <c r="F133" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>3</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C134" t="s">
         <v>3</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E134" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>289</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B135" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" t="s">
         <v>290</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E135" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="F135" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>292</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B136" t="s">
+        <v>501</v>
+      </c>
+      <c r="C136" t="s">
         <v>106</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E136" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="F136" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>294</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B137" t="s">
+        <v>500</v>
+      </c>
+      <c r="C137" t="s">
         <v>295</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E137" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="F137" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>297</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B138" t="s">
+        <v>500</v>
+      </c>
+      <c r="C138" t="s">
         <v>298</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E138" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="F138" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>300</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B139" t="s">
+        <v>501</v>
+      </c>
+      <c r="C139" t="s">
         <v>301</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E139" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
+      <c r="F139" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>303</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B140" t="s">
+        <v>500</v>
+      </c>
+      <c r="C140" t="s">
         <v>304</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E140" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="F140" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>306</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B141" t="s">
+        <v>500</v>
+      </c>
+      <c r="C141" t="s">
         <v>307</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E141" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
+      <c r="F141" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>309</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B142" t="s">
+        <v>501</v>
+      </c>
+      <c r="C142" t="s">
         <v>310</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E142" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
+      <c r="F142" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>312</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B143" t="s">
+        <v>500</v>
+      </c>
+      <c r="C143" t="s">
         <v>83</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E143" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
+      <c r="F143" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>314</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B144" t="s">
+        <v>500</v>
+      </c>
+      <c r="C144" t="s">
         <v>169</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E144" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
+      <c r="F144" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>3</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C145" t="s">
         <v>3</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E145" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>317</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B146" t="s">
+        <v>501</v>
+      </c>
+      <c r="C146" t="s">
         <v>68</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E146" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="F146" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>319</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B147" t="s">
+        <v>500</v>
+      </c>
+      <c r="C147" t="s">
         <v>55</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E147" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
+      <c r="F147" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>321</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B148" t="s">
+        <v>501</v>
+      </c>
+      <c r="C148" t="s">
         <v>55</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E148" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
+      <c r="F148" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>323</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B149" t="s">
+        <v>501</v>
+      </c>
+      <c r="C149" t="s">
         <v>55</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E149" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
+      <c r="F149" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>325</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B150" t="s">
+        <v>501</v>
+      </c>
+      <c r="C150" t="s">
         <v>55</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E150" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
+      <c r="F150" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>327</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B151" t="s">
+        <v>501</v>
+      </c>
+      <c r="C151" t="s">
         <v>55</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E151" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
+      <c r="F151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>329</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B152" t="s">
+        <v>501</v>
+      </c>
+      <c r="C152" t="s">
         <v>55</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E152" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="F152" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>331</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B153" t="s">
+        <v>500</v>
+      </c>
+      <c r="C153" t="s">
         <v>55</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E153" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
+      <c r="F153" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>333</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B154" t="s">
+        <v>501</v>
+      </c>
+      <c r="C154" t="s">
         <v>55</v>
       </c>
-      <c r="C150" t="s">
+      <c r="E154" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
+      <c r="F154" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>335</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B155" t="s">
+        <v>500</v>
+      </c>
+      <c r="C155" t="s">
         <v>55</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E155" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
+      <c r="F155" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>337</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B156" t="s">
+        <v>501</v>
+      </c>
+      <c r="C156" t="s">
         <v>55</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E156" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
+      <c r="F156" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>3</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C157" t="s">
         <v>3</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E157" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>340</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B158" t="s">
+        <v>501</v>
+      </c>
+      <c r="C158" t="s">
         <v>55</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E158" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
+      <c r="F158" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>342</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+      <c r="C159" t="s">
         <v>343</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E159" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
+      <c r="F159" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>345</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B160" t="s">
+        <v>500</v>
+      </c>
+      <c r="C160" t="s">
         <v>346</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D160" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
+      <c r="E160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" t="s">
+        <v>500</v>
+      </c>
+      <c r="C161" t="s">
+        <v>346</v>
+      </c>
+      <c r="E161" t="s">
+        <v>347</v>
+      </c>
+      <c r="F161" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>348</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B162" t="s">
+        <v>501</v>
+      </c>
+      <c r="C162" t="s">
         <v>346</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E162" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
+      <c r="F162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>350</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B163" t="s">
+        <v>500</v>
+      </c>
+      <c r="C163" t="s">
         <v>346</v>
       </c>
-      <c r="C158" t="s">
+      <c r="E163" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="F163" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>352</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B164" t="s">
+        <v>500</v>
+      </c>
+      <c r="C164" t="s">
         <v>55</v>
       </c>
-      <c r="C159" t="s">
+      <c r="E164" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>3</v>
-      </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>355</v>
-      </c>
-      <c r="B161" t="s">
-        <v>55</v>
-      </c>
-      <c r="C161" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>357</v>
-      </c>
-      <c r="B162" t="s">
-        <v>358</v>
-      </c>
-      <c r="C162" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>360</v>
-      </c>
-      <c r="B163" t="s">
-        <v>128</v>
-      </c>
-      <c r="C163" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>362</v>
-      </c>
-      <c r="B164" t="s">
-        <v>154</v>
-      </c>
-      <c r="C164" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="F164" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>3</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>3</v>
       </c>
-      <c r="C165" t="s">
+      <c r="E165" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>355</v>
+      </c>
+      <c r="B166" t="s">
+        <v>501</v>
+      </c>
+      <c r="C166" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" t="s">
+        <v>356</v>
+      </c>
+      <c r="F166" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" t="s">
+        <v>501</v>
+      </c>
+      <c r="C167" t="s">
+        <v>358</v>
+      </c>
+      <c r="E167" t="s">
+        <v>359</v>
+      </c>
+      <c r="F167" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>360</v>
+      </c>
+      <c r="B168" t="s">
+        <v>500</v>
+      </c>
+      <c r="C168" t="s">
+        <v>128</v>
+      </c>
+      <c r="E168" t="s">
+        <v>361</v>
+      </c>
+      <c r="F168" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>362</v>
+      </c>
+      <c r="B169" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" t="s">
+        <v>154</v>
+      </c>
+      <c r="E169" t="s">
+        <v>363</v>
+      </c>
+      <c r="F169" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>365</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B171" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" t="s">
         <v>366</v>
       </c>
-      <c r="C166" t="s">
+      <c r="E171" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
+      <c r="F171" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>368</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B172" t="s">
+        <v>501</v>
+      </c>
+      <c r="C172" t="s">
         <v>369</v>
       </c>
-      <c r="C167" t="s">
+      <c r="E172" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
+      <c r="F172" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>371</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B173" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" t="s">
         <v>369</v>
       </c>
-      <c r="C168" t="s">
+      <c r="E173" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="F173" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>373</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B174" t="s">
+        <v>501</v>
+      </c>
+      <c r="C174" t="s">
         <v>369</v>
       </c>
-      <c r="C169" t="s">
+      <c r="E174" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
+      <c r="F174" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>375</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B175" t="s">
+        <v>501</v>
+      </c>
+      <c r="C175" t="s">
         <v>128</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E175" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
+      <c r="F175" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>3</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C176" t="s">
         <v>3</v>
       </c>
-      <c r="C171" t="s">
+      <c r="E176" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>378</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B177" t="s">
+        <v>501</v>
+      </c>
+      <c r="C177" t="s">
         <v>106</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E177" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
+      <c r="F177" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>380</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B178" t="s">
+        <v>501</v>
+      </c>
+      <c r="C178" t="s">
         <v>381</v>
       </c>
-      <c r="C173" t="s">
+      <c r="E178" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
+      <c r="F178" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>383</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B179" t="s">
+        <v>501</v>
+      </c>
+      <c r="C179" t="s">
         <v>55</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D179" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
+      <c r="E179" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>383</v>
+      </c>
+      <c r="B180" t="s">
+        <v>501</v>
+      </c>
+      <c r="C180" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" t="s">
+        <v>384</v>
+      </c>
+      <c r="F180" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>385</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B181" t="s">
+        <v>501</v>
+      </c>
+      <c r="C181" t="s">
         <v>55</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D181" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
+      <c r="E181" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>385</v>
+      </c>
+      <c r="B182" t="s">
+        <v>501</v>
+      </c>
+      <c r="C182" t="s">
+        <v>55</v>
+      </c>
+      <c r="D182" t="s">
+        <v>386</v>
+      </c>
+      <c r="E182" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>385</v>
+      </c>
+      <c r="B183" t="s">
+        <v>501</v>
+      </c>
+      <c r="C183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" t="s">
+        <v>386</v>
+      </c>
+      <c r="F183" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>387</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B184" t="s">
+        <v>501</v>
+      </c>
+      <c r="C184" t="s">
         <v>55</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D184" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
+      <c r="E184" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>387</v>
+      </c>
+      <c r="B185" t="s">
+        <v>501</v>
+      </c>
+      <c r="C185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>388</v>
+      </c>
+      <c r="F185" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>389</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B186" t="s">
+        <v>501</v>
+      </c>
+      <c r="C186" t="s">
         <v>381</v>
       </c>
-      <c r="C177" t="s">
+      <c r="E186" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
+      <c r="F186" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>391</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B187" t="s">
+        <v>501</v>
+      </c>
+      <c r="C187" t="s">
         <v>346</v>
       </c>
-      <c r="C178" t="s">
+      <c r="E187" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
+      <c r="F187" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>393</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B188" t="s">
+        <v>501</v>
+      </c>
+      <c r="C188" t="s">
         <v>68</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E188" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
+      <c r="F188" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>395</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B189" t="s">
+        <v>501</v>
+      </c>
+      <c r="C189" t="s">
         <v>396</v>
       </c>
-      <c r="C180" t="s">
+      <c r="E189" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
+      <c r="F189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>398</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B190" t="s">
+        <v>501</v>
+      </c>
+      <c r="C190" t="s">
         <v>399</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E190" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
+      <c r="F190" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>61</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B191" t="s">
+        <v>501</v>
+      </c>
+      <c r="C191" t="s">
         <v>55</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E191" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
+      <c r="F191" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>3</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C192" t="s">
         <v>3</v>
       </c>
-      <c r="C183" t="s">
+      <c r="E192" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>403</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B193" t="s">
+        <v>501</v>
+      </c>
+      <c r="C193" t="s">
         <v>120</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E193" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
+      <c r="F193" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>405</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B194" t="s">
+        <v>500</v>
+      </c>
+      <c r="C194" t="s">
         <v>73</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E194" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
+      <c r="F194" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>407</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B195" t="s">
+        <v>501</v>
+      </c>
+      <c r="C195" t="s">
         <v>120</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E195" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
+      <c r="F195" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>409</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B196" t="s">
+        <v>501</v>
+      </c>
+      <c r="C196" t="s">
         <v>55</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D196" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
+      <c r="E196" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>409</v>
+      </c>
+      <c r="B197" t="s">
+        <v>500</v>
+      </c>
+      <c r="C197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>410</v>
+      </c>
+      <c r="F197" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>411</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B198" t="s">
+        <v>501</v>
+      </c>
+      <c r="C198" t="s">
         <v>55</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E198" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
+      <c r="F198" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>413</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B199" t="s">
+        <v>501</v>
+      </c>
+      <c r="C199" t="s">
         <v>83</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E199" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
+      <c r="F199" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>415</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B200" t="s">
+        <v>501</v>
+      </c>
+      <c r="C200" t="s">
         <v>416</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D200" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
+      <c r="E200" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>415</v>
+      </c>
+      <c r="B201" t="s">
+        <v>501</v>
+      </c>
+      <c r="C201" t="s">
+        <v>416</v>
+      </c>
+      <c r="E201" t="s">
+        <v>417</v>
+      </c>
+      <c r="F201" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>418</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B202" t="s">
+        <v>501</v>
+      </c>
+      <c r="C202" t="s">
         <v>55</v>
       </c>
-      <c r="C191" t="s">
+      <c r="E202" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
+      <c r="F202" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>420</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B203" t="s">
+        <v>501</v>
+      </c>
+      <c r="C203" t="s">
         <v>55</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D203" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="E203" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>420</v>
+      </c>
+      <c r="B204" t="s">
+        <v>501</v>
+      </c>
+      <c r="C204" t="s">
+        <v>55</v>
+      </c>
+      <c r="E204" t="s">
+        <v>421</v>
+      </c>
+      <c r="F204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>422</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B205" t="s">
+        <v>501</v>
+      </c>
+      <c r="C205" t="s">
         <v>55</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E205" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
+      <c r="F205" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>424</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B206" t="s">
+        <v>500</v>
+      </c>
+      <c r="C206" t="s">
         <v>55</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D206" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
+      <c r="E206" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" t="s">
+        <v>501</v>
+      </c>
+      <c r="C207" t="s">
+        <v>55</v>
+      </c>
+      <c r="E207" t="s">
+        <v>425</v>
+      </c>
+      <c r="F207" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>426</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B208" t="s">
+        <v>500</v>
+      </c>
+      <c r="C208" t="s">
         <v>55</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D208" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>426</v>
+      </c>
+      <c r="B209" t="s">
+        <v>501</v>
+      </c>
+      <c r="C209" t="s">
+        <v>55</v>
+      </c>
+      <c r="D209" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
+      <c r="E209" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210" t="s">
+        <v>501</v>
+      </c>
+      <c r="C210" t="s">
+        <v>55</v>
+      </c>
+      <c r="E210" t="s">
+        <v>427</v>
+      </c>
+      <c r="F210" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>3</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C211" t="s">
         <v>3</v>
       </c>
-      <c r="C196" t="s">
+      <c r="E211" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>429</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B212" t="s">
+        <v>501</v>
+      </c>
+      <c r="C212" t="s">
         <v>430</v>
       </c>
-      <c r="C197" t="s">
+      <c r="E212" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
+      <c r="F212" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>432</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B213" t="s">
+        <v>501</v>
+      </c>
+      <c r="C213" t="s">
         <v>120</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E213" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
+      <c r="F213" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>434</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B214" t="s">
+        <v>501</v>
+      </c>
+      <c r="C214" t="s">
         <v>106</v>
       </c>
-      <c r="C199" t="s">
+      <c r="E214" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
+      <c r="F214" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>436</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C215" t="s">
         <v>55</v>
       </c>
-      <c r="C200" t="s">
+      <c r="E215" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="F215" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>438</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B216" t="s">
+        <v>501</v>
+      </c>
+      <c r="C216" t="s">
         <v>439</v>
       </c>
-      <c r="C201" t="s">
+      <c r="E216" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
+      <c r="F216" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>441</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B217" t="s">
+        <v>501</v>
+      </c>
+      <c r="C217" t="s">
         <v>442</v>
       </c>
-      <c r="C202" t="s">
+      <c r="E217" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
+      <c r="F217" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>444</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B218" t="s">
+        <v>501</v>
+      </c>
+      <c r="C218" t="s">
         <v>445</v>
       </c>
-      <c r="C203" t="s">
+      <c r="E218" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
+      <c r="F218" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>447</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B219" t="s">
+        <v>500</v>
+      </c>
+      <c r="C219" t="s">
         <v>55</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D219" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
+      <c r="E219" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>447</v>
+      </c>
+      <c r="B220" t="s">
+        <v>501</v>
+      </c>
+      <c r="C220" t="s">
+        <v>55</v>
+      </c>
+      <c r="E220" t="s">
+        <v>448</v>
+      </c>
+      <c r="F220" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>449</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B221" t="s">
+        <v>501</v>
+      </c>
+      <c r="C221" t="s">
         <v>55</v>
       </c>
-      <c r="C205" t="s">
+      <c r="E221" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
+      <c r="F221" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>451</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B222" t="s">
+        <v>500</v>
+      </c>
+      <c r="C222" t="s">
         <v>55</v>
       </c>
-      <c r="C206" t="s">
+      <c r="E222" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
+      <c r="F222" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>453</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B223" t="s">
+        <v>500</v>
+      </c>
+      <c r="C223" t="s">
         <v>55</v>
       </c>
-      <c r="C207" t="s">
+      <c r="E223" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
+      <c r="F223" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>3</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C224" t="s">
         <v>3</v>
       </c>
-      <c r="C208" t="s">
+      <c r="E224" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>456</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B225" t="s">
+        <v>501</v>
+      </c>
+      <c r="C225" t="s">
         <v>120</v>
       </c>
-      <c r="C209" t="s">
+      <c r="E225" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
+      <c r="F225" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>398</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B226" t="s">
+        <v>501</v>
+      </c>
+      <c r="C226" t="s">
         <v>399</v>
       </c>
-      <c r="C210" t="s">
+      <c r="E226" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
+      <c r="F226" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>459</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B227" t="s">
+        <v>501</v>
+      </c>
+      <c r="C227" t="s">
         <v>399</v>
       </c>
-      <c r="C211" t="s">
+      <c r="E227" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
+      <c r="F227" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>380</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B228" t="s">
+        <v>501</v>
+      </c>
+      <c r="C228" t="s">
         <v>120</v>
       </c>
-      <c r="C212" t="s">
+      <c r="E228" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
+      <c r="F228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>462</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B229" t="s">
+        <v>501</v>
+      </c>
+      <c r="C229" t="s">
         <v>68</v>
       </c>
-      <c r="C213" t="s">
+      <c r="E229" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
+      <c r="F229" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>464</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B230" t="s">
+        <v>501</v>
+      </c>
+      <c r="C230" t="s">
         <v>465</v>
       </c>
-      <c r="C214" t="s">
+      <c r="E230" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
+      <c r="F230" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>467</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B231" t="s">
+        <v>501</v>
+      </c>
+      <c r="C231" t="s">
         <v>381</v>
       </c>
-      <c r="C215" t="s">
+      <c r="E231" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
+      <c r="F231" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>469</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B232" t="s">
+        <v>500</v>
+      </c>
+      <c r="C232" t="s">
         <v>120</v>
       </c>
-      <c r="C216" t="s">
+      <c r="E232" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
+      <c r="F232" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>471</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B233" t="s">
+        <v>501</v>
+      </c>
+      <c r="C233" t="s">
         <v>120</v>
       </c>
-      <c r="C217" t="s">
+      <c r="E233" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
+      <c r="F233" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>3</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C234" t="s">
         <v>3</v>
       </c>
-      <c r="C218" t="s">
+      <c r="E234" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>474</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B235" t="s">
+        <v>501</v>
+      </c>
+      <c r="C235" t="s">
         <v>106</v>
       </c>
-      <c r="C219" t="s">
+      <c r="E235" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
+      <c r="F235" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>476</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B236" t="s">
+        <v>501</v>
+      </c>
+      <c r="C236" t="s">
         <v>120</v>
       </c>
-      <c r="C220" t="s">
+      <c r="E236" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
+      <c r="F236" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>478</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B237" t="s">
+        <v>501</v>
+      </c>
+      <c r="C237" t="s">
         <v>55</v>
       </c>
-      <c r="C221" t="s">
+      <c r="E237" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
+      <c r="F237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>480</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B238" t="s">
+        <v>501</v>
+      </c>
+      <c r="C238" t="s">
         <v>55</v>
       </c>
-      <c r="C222" t="s">
+      <c r="E238" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
+      <c r="F238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>482</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B239" t="s">
+        <v>501</v>
+      </c>
+      <c r="C239" t="s">
         <v>483</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D239" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
+      <c r="E239" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>482</v>
+      </c>
+      <c r="B240" t="s">
+        <v>500</v>
+      </c>
+      <c r="C240" t="s">
+        <v>483</v>
+      </c>
+      <c r="E240" t="s">
+        <v>484</v>
+      </c>
+      <c r="F240" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>485</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B241" t="s">
+        <v>501</v>
+      </c>
+      <c r="C241" t="s">
         <v>6</v>
       </c>
-      <c r="C224" t="s">
+      <c r="E241" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
+      <c r="F241" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>487</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B242" t="s">
+        <v>501</v>
+      </c>
+      <c r="C242" t="s">
         <v>55</v>
       </c>
-      <c r="C225" t="s">
+      <c r="E242" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
+      <c r="F242" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>489</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B243" t="s">
+        <v>501</v>
+      </c>
+      <c r="C243" t="s">
         <v>490</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D243" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
+      <c r="E243" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>489</v>
+      </c>
+      <c r="B244" t="s">
+        <v>501</v>
+      </c>
+      <c r="C244" t="s">
+        <v>490</v>
+      </c>
+      <c r="E244" t="s">
+        <v>491</v>
+      </c>
+      <c r="F244" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>492</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B245" t="s">
+        <v>501</v>
+      </c>
+      <c r="C245" t="s">
         <v>55</v>
       </c>
-      <c r="C227" t="s">
+      <c r="E245" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
+      <c r="F245" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>494</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B246" t="s">
+        <v>501</v>
+      </c>
+      <c r="C246" t="s">
         <v>495</v>
       </c>
-      <c r="C228" t="s">
+      <c r="E246" t="s">
         <v>496</v>
       </c>
+      <c r="F246" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A1:F246">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="H"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Congreso_2018/DATOS_SIMPOSIOS_2018.xlsx
+++ b/Congreso_2018/DATOS_SIMPOSIOS_2018.xlsx
@@ -1687,18 +1687,18 @@
   </sheetPr>
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D247" activeCellId="0" sqref="D247"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D138" activeCellId="0" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="58.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="81.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="81.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2453,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>101</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>179</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>184</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>188</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>190</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>205</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>249</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>250</v>
@@ -4265,7 +4265,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>305</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>317</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>325</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>505</v>
       </c>
@@ -6346,7 +6346,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <customFilters and="true">
-        <customFilter operator="equal" val="Occidente"/>
+        <customFilter operator="equal" val="Norte"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/Congreso_2018/DATOS_SIMPOSIOS_2018.xlsx
+++ b/Congreso_2018/DATOS_SIMPOSIOS_2018.xlsx
@@ -1687,8 +1687,8 @@
   </sheetPr>
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D138" activeCellId="0" sqref="D138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1696,8 +1696,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="58.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="81.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.13"/>
   </cols>
   <sheetData>
@@ -2142,7 +2142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>62</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>64</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>66</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>69</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>71</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>73</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>75</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>78</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>80</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>83</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>179</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>184</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>188</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>190</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>325</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>505</v>
       </c>
@@ -6344,9 +6344,9 @@
         <filter val="M"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="5">
       <customFilters and="true">
-        <customFilter operator="equal" val="Norte"/>
+        <customFilter operator="equal" val="Experiencia y trascendencia"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
